--- a/QuanLyChiPhi/MauBaoCao/TongHopPhieuThu.xlsx
+++ b/QuanLyChiPhi/MauBaoCao/TongHopPhieuThu.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20388"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/Test/CTHL/QuanLyChiPhi/MauBaoCao/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\OneDrive\Máy tính\tic\QuanLyChiPhi\MauBaoCao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D31135C5-71C0-FC4B-9DAE-95CC47D96357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF0EDFDB-86B4-4296-8861-11470C09DF86}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6280" yWindow="3420" windowWidth="20740" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6285" yWindow="3420" windowWidth="20745" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tổng hợp" sheetId="5" r:id="rId1"/>
@@ -73,6 +73,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0\ [$₫-42A]"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -153,28 +156,37 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -493,81 +505,81 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.6640625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="15.1640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="22.83203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="22.1640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="25.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="20.33203125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10" style="1" customWidth="1"/>
-    <col min="12" max="12" width="25" style="1" customWidth="1"/>
-    <col min="13" max="13" width="21.1640625" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.1640625" style="1"/>
+    <col min="1" max="1" width="5.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="22" style="8" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="22.85546875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="22.140625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="3" customWidth="1"/>
+    <col min="10" max="10" width="22.85546875" style="9" customWidth="1"/>
+    <col min="11" max="11" width="24.5703125" style="9" customWidth="1"/>
+    <col min="12" max="12" width="25" style="3" customWidth="1"/>
+    <col min="13" max="13" width="22.28515625" style="3" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="2"/>
     </row>
-    <row r="2" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="6" t="s">
         <v>9</v>
       </c>
       <c r="K2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="7" t="s">
         <v>12</v>
       </c>
     </row>

--- a/QuanLyChiPhi/MauBaoCao/TongHopPhieuThu.xlsx
+++ b/QuanLyChiPhi/MauBaoCao/TongHopPhieuThu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\OneDrive\Máy tính\tic\QuanLyChiPhi\MauBaoCao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF0EDFDB-86B4-4296-8861-11470C09DF86}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3245D423-18C3-4363-A2BE-0F9B0F7BD162}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6285" yWindow="3420" windowWidth="20745" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,9 +57,6 @@
     <t>Giá</t>
   </si>
   <si>
-    <t>Tổng</t>
-  </si>
-  <si>
     <t>Phương thức thanh toán</t>
   </si>
   <si>
@@ -67,6 +64,9 @@
   </si>
   <si>
     <t>Tên dịch vụ</t>
+  </si>
+  <si>
+    <t>Thành tiền</t>
   </si>
 </sst>
 </file>
@@ -156,14 +156,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -502,92 +496,96 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="22" style="8" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="22.42578125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="22.85546875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="22.140625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="3" customWidth="1"/>
-    <col min="10" max="10" width="22.85546875" style="9" customWidth="1"/>
-    <col min="11" max="11" width="24.5703125" style="9" customWidth="1"/>
-    <col min="12" max="12" width="25" style="3" customWidth="1"/>
-    <col min="13" max="13" width="22.28515625" style="3" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="5.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22" style="6" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="22.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="22.85546875" style="7" customWidth="1"/>
+    <col min="11" max="11" width="24.5703125" style="7" customWidth="1"/>
+    <col min="12" max="12" width="25" style="1" customWidth="1"/>
+    <col min="13" max="13" width="22.28515625" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="2"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
     </row>
     <row r="2" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="6" t="s">
+      <c r="L2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="M2" s="5" t="s">
         <v>11</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A1:M1"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="54" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/QuanLyChiPhi/MauBaoCao/TongHopPhieuThu.xlsx
+++ b/QuanLyChiPhi/MauBaoCao/TongHopPhieuThu.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\OneDrive\Máy tính\tic\QuanLyChiPhi\MauBaoCao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3245D423-18C3-4363-A2BE-0F9B0F7BD162}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89213DF8-A9CC-4158-A871-C96B145581A1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6285" yWindow="3420" windowWidth="20745" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tổng hợp" sheetId="5" r:id="rId1"/>
+    <sheet name="Chưa đóng" sheetId="7" r:id="rId1"/>
+    <sheet name="Đã đóng" sheetId="6" r:id="rId2"/>
+    <sheet name="Tổng hợp" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="14">
   <si>
     <t>STT</t>
   </si>
@@ -495,13 +497,205 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C5155FB-8472-4E14-BD88-F69FA0630977}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:M2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22" style="6" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="22.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="22.85546875" style="7" customWidth="1"/>
+    <col min="11" max="11" width="24.5703125" style="7" customWidth="1"/>
+    <col min="12" max="12" width="25" style="1" customWidth="1"/>
+    <col min="13" max="13" width="22.28515625" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+    </row>
+    <row r="2" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:M1"/>
+  </mergeCells>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="54" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30002FEA-16A3-4A3D-94A3-B171A6B0765C}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:M2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22" style="6" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="22.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="22.85546875" style="7" customWidth="1"/>
+    <col min="11" max="11" width="24.5703125" style="7" customWidth="1"/>
+    <col min="12" max="12" width="25" style="1" customWidth="1"/>
+    <col min="13" max="13" width="22.28515625" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+    </row>
+    <row r="2" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:M1"/>
+  </mergeCells>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="54" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
